--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\api-ueb\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\test-carga-masiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4525BC-5A76-42F8-B88E-55AFD22274A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8015B0-1EBE-4DF6-9AA7-9579AAC3E54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,45 +25,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>identification_card</t>
   </si>
   <si>
+    <t>patern_lastname</t>
+  </si>
+  <si>
     <t>matern_lastname</t>
   </si>
   <si>
-    <t>patern_lastname</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
     <t>second_name</t>
   </si>
   <si>
-    <t>ALBUJA</t>
-  </si>
-  <si>
-    <t>VILLACIS</t>
-  </si>
-  <si>
-    <t>EMILIA</t>
-  </si>
-  <si>
-    <t>MONSERRATH</t>
-  </si>
-  <si>
-    <t>ALOMALIZA</t>
-  </si>
-  <si>
-    <t>BUSTILLOS</t>
-  </si>
-  <si>
-    <t>JUSTIN</t>
-  </si>
-  <si>
-    <t>STEVE</t>
+    <t>course</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ALDAS</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CALDERON</t>
+  </si>
+  <si>
+    <t>ROCANO</t>
+  </si>
+  <si>
+    <t>TROYA</t>
+  </si>
+  <si>
+    <t>THAIS</t>
+  </si>
+  <si>
+    <t>ARMIJOS</t>
+  </si>
+  <si>
+    <t>PRIMERO BGU</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>MATUTINA</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>VESPERTINA</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>PATRICIO</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
   </si>
 </sst>
 </file>
@@ -164,7 +212,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -199,7 +247,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -381,30 +429,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -412,39 +462,144 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1850054733</v>
+        <v>1812345678</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1851067718</v>
+        <v>1812345679</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1512345678</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1703857646</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1812342678</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
